--- a/outputs/1786501092_part_list.xlsx
+++ b/outputs/1786501092_part_list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BLXWFA0019LX</t>
+          <t>BL01000002LM</t>
         </is>
       </c>
     </row>
@@ -1172,78 +1172,6 @@
         </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>BLXWHM0001C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>1786501092</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>BLXWHM00019J</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1786501092</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>BLXWMB00001G</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>1786501092</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>BLXWPL0PW0GF</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1786501092</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>BLXWFA0019KM</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1786501092</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>BL01000002LM</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1786501092</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
         <is>
           <t>BL01000002HF</t>
         </is>
